--- a/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,249 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>76</v>
       </c>
     </row>
@@ -597,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,49 +731,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>76</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,47 +460,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -508,87 +508,87 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -596,105 +596,89 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45445.99999999999</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45452.99999999999</v>
-      </c>
-      <c r="B32" t="n">
         <v>76</v>
       </c>
     </row>
@@ -742,7 +726,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">

--- a/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,565 @@
       </c>
       <c r="B14" t="n">
         <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-26.02482169115098</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.0868949193929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.93214706483073</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.87292959729613</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-20.51531272738129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.9604970250295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-18.51248436063039</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.8979349625201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-16.38279692702327</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.57061212692496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-16.83132614007526</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.1682921175582</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-17.15432604780744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.84305503946234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-16.42742560017087</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.04465499450965</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.12805791759456</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49.80170775823393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-14.79805399372206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52.01032520852884</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.0643306201989</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.96051329376392</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16.12691789400182</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52.40342395371736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-10.49150438126315</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51.52804431266066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-11.25874855200596</v>
+      </c>
+      <c r="D15" t="n">
+        <v>56.10642039304145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.12863592174762</v>
+      </c>
+      <c r="D16" t="n">
+        <v>54.93134089140352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-9.136618404284214</v>
+      </c>
+      <c r="D17" t="n">
+        <v>57.29850748063774</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-10.72859645254793</v>
+      </c>
+      <c r="D18" t="n">
+        <v>57.04107582276254</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.005703064301104</v>
+      </c>
+      <c r="D19" t="n">
+        <v>58.45675421509043</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-9.460672637985549</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.26815452883562</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.741476526673332</v>
+      </c>
+      <c r="D21" t="n">
+        <v>55.52621905337507</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.237106254028508</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59.8151355112071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.613250475764293</v>
+      </c>
+      <c r="D23" t="n">
+        <v>59.74963256659445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.138475023128608</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59.44109398023988</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.640659982352402</v>
+      </c>
+      <c r="D25" t="n">
+        <v>59.8794319747832</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.766954208902018</v>
+      </c>
+      <c r="D26" t="n">
+        <v>59.11910732076301</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.392892630013441</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.06887783149156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.474776326952492</v>
+      </c>
+      <c r="D28" t="n">
+        <v>60.20234059167834</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.237846806449673</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60.65159109648719</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.795805172950262</v>
+      </c>
+      <c r="D30" t="n">
+        <v>61.44285222919476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.885291764280487</v>
+      </c>
+      <c r="D31" t="n">
+        <v>65.89740717228884</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.048575059759017</v>
+      </c>
+      <c r="D32" t="n">
+        <v>63.52612839503093</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.589851857238429</v>
+      </c>
+      <c r="D33" t="n">
+        <v>61.53142057078736</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.382454514180466</v>
+      </c>
+      <c r="D34" t="n">
+        <v>63.00231845047437</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.881341161837479</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62.88813655103773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.839557245458218</v>
+      </c>
+      <c r="D36" t="n">
+        <v>63.67386544625935</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.537144150605482</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.56579908512821</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-4.809992599392067</v>
+      </c>
+      <c r="D38" t="n">
+        <v>64.55025589167779</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRM8ZSG_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>-26.02482169115098</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.0868949193929</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.93214706483073</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.87292959729613</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>-20.51531272738129</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.9604970250295</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>-18.51248436063039</v>
-      </c>
-      <c r="D5" t="n">
-        <v>47.8979349625201</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>-16.38279692702327</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49.57061212692496</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>-16.83132614007526</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51.1682921175582</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
-        <v>-17.15432604780744</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.84305503946234</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
-        <v>-16.42742560017087</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.04465499450965</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
-        <v>-17.12805791759456</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.80170775823393</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
-        <v>-14.79805399372206</v>
-      </c>
-      <c r="D11" t="n">
-        <v>52.01032520852884</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.0643306201989</v>
-      </c>
-      <c r="D12" t="n">
-        <v>53.96051329376392</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
-        <v>-16.12691789400182</v>
-      </c>
-      <c r="D13" t="n">
-        <v>52.40342395371736</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>22</v>
       </c>
-      <c r="C14" t="n">
-        <v>-10.49150438126315</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51.52804431266066</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>-11.25874855200596</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56.10642039304145</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>22</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.12863592174762</v>
-      </c>
-      <c r="D16" t="n">
-        <v>54.93134089140352</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>-9.136618404284214</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.29850748063774</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>23</v>
       </c>
-      <c r="C18" t="n">
-        <v>-10.72859645254793</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.04107582276254</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>24</v>
       </c>
-      <c r="C19" t="n">
-        <v>-8.005703064301104</v>
-      </c>
-      <c r="D19" t="n">
-        <v>58.45675421509043</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
-        <v>-9.460672637985549</v>
-      </c>
-      <c r="D20" t="n">
-        <v>61.26815452883562</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>25</v>
       </c>
-      <c r="C21" t="n">
-        <v>-7.741476526673332</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.52621905337507</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>-7.237106254028508</v>
-      </c>
-      <c r="D22" t="n">
-        <v>59.8151355112071</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>26</v>
       </c>
-      <c r="C23" t="n">
-        <v>-5.613250475764293</v>
-      </c>
-      <c r="D23" t="n">
-        <v>59.74963256659445</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>26</v>
       </c>
-      <c r="C24" t="n">
-        <v>-8.138475023128608</v>
-      </c>
-      <c r="D24" t="n">
-        <v>59.44109398023988</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>26</v>
       </c>
-      <c r="C25" t="n">
-        <v>-6.640659982352402</v>
-      </c>
-      <c r="D25" t="n">
-        <v>59.8794319747832</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>27</v>
       </c>
-      <c r="C26" t="n">
-        <v>-4.766954208902018</v>
-      </c>
-      <c r="D26" t="n">
-        <v>59.11910732076301</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>28</v>
       </c>
-      <c r="C27" t="n">
-        <v>-4.392892630013441</v>
-      </c>
-      <c r="D27" t="n">
-        <v>61.06887783149156</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>28</v>
       </c>
-      <c r="C28" t="n">
-        <v>-5.474776326952492</v>
-      </c>
-      <c r="D28" t="n">
-        <v>60.20234059167834</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.237846806449673</v>
-      </c>
-      <c r="D29" t="n">
-        <v>60.65159109648719</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>29</v>
       </c>
-      <c r="C30" t="n">
-        <v>-3.795805172950262</v>
-      </c>
-      <c r="D30" t="n">
-        <v>61.44285222919476</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="n">
-        <v>-3.885291764280487</v>
-      </c>
-      <c r="D31" t="n">
-        <v>65.89740717228884</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>29</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.048575059759017</v>
-      </c>
-      <c r="D32" t="n">
-        <v>63.52612839503093</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>30</v>
       </c>
-      <c r="C33" t="n">
-        <v>-4.589851857238429</v>
-      </c>
-      <c r="D33" t="n">
-        <v>61.53142057078736</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>30</v>
       </c>
-      <c r="C34" t="n">
-        <v>-2.382454514180466</v>
-      </c>
-      <c r="D34" t="n">
-        <v>63.00231845047437</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>30</v>
       </c>
-      <c r="C35" t="n">
-        <v>-5.881341161837479</v>
-      </c>
-      <c r="D35" t="n">
-        <v>62.88813655103773</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>30</v>
       </c>
-      <c r="C36" t="n">
-        <v>-2.839557245458218</v>
-      </c>
-      <c r="D36" t="n">
-        <v>63.67386544625935</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>31</v>
       </c>
-      <c r="C37" t="n">
-        <v>-1.537144150605482</v>
-      </c>
-      <c r="D37" t="n">
-        <v>62.56579908512821</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1369,12 +1143,6 @@
       </c>
       <c r="B38" t="n">
         <v>31</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-4.809992599392067</v>
-      </c>
-      <c r="D38" t="n">
-        <v>64.55025589167779</v>
       </c>
     </row>
   </sheetData>
